--- a/output/SCAN000702-2/match_locs.xlsx
+++ b/output/SCAN000702-2/match_locs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="100">
   <si>
     <t>match_rank</t>
   </si>
@@ -34,376 +34,397 @@
     <t>1</t>
   </si>
   <si>
-    <t>3.8691</t>
+    <t>5.3836</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>[[ -0.66240396 145.75573749]
+ [113.47821806  49.98038365]
+ [209.25357191 164.12100567]
+ [ 95.11294988 259.89635952]]</t>
+  </si>
+  <si>
+    <t>[[ 35. 110.]
+ [184. 110.]
+ [184. 259.]
+ [ 35. 259.]]</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>5.0652</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>[[210.66240396 164.24426251]
+ [ 96.52178194 260.01961635]
+ [  0.74642809 145.87899433]
+ [114.88705012  50.10364048]]</t>
+  </si>
+  <si>
+    <t>[[275. 205.]
+ [424. 205.]
+ [424. 354.]
+ [275. 354.]]</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4.9580</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>[[210.66240396 174.24426251]
+ [ 96.52178194 270.01961635]
+ [  0.74642809 155.87899433]
+ [114.88705012  60.10364048]]</t>
+  </si>
+  <si>
+    <t>[[460. 180.]
+ [609. 180.]
+ [609. 329.]
+ [460. 329.]]</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>4.8986</t>
   </si>
   <si>
     <t>376</t>
   </si>
   <si>
-    <t>[[ 19.33759604 165.75573749]
- [133.47821806  69.98038365]
- [229.25357191 184.12100567]
- [115.11294988 279.89635952]]</t>
-  </si>
-  <si>
-    <t>[[350.   0.]
- [499.   0.]
- [499. 149.]
- [350. 149.]]</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3.8173</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>[[450. 200.]
- [599. 200.]
- [599. 349.]
- [450. 349.]]</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>3.8166</t>
+    <t>[[340.   5.]
+ [489.   5.]
+ [489. 154.]
+ [340. 154.]]</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4.7247</t>
   </si>
   <si>
     <t>70</t>
   </si>
   <si>
-    <t>[[ 22.54809472 147.54809472]
- [151.58587988  73.04809472]
- [226.08587988 202.08587988]
- [ 97.04809472 276.58587988]]</t>
-  </si>
-  <si>
-    <t>[[200. 250.]
- [349. 250.]
- [349. 399.]
- [200. 399.]]</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>3.8009</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>[[ 19.33759604 115.75573749]
- [133.47821806  19.98038365]
- [229.25357191 134.12100567]
- [115.11294988 229.89635952]]</t>
-  </si>
-  <si>
-    <t>[[ 50. 100.]
- [199. 100.]
- [199. 249.]
- [ 50. 249.]]</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>3.7094</t>
-  </si>
-  <si>
-    <t>225</t>
-  </si>
-  <si>
-    <t>[[227.45190528 202.45190528]
- [ 98.41412012 276.95190528]
- [ 23.91412012 147.91412012]
- [152.95190528  73.41412012]]</t>
-  </si>
-  <si>
-    <t>[[250. 200.]
- [399. 200.]
- [399. 349.]
- [250. 349.]]</t>
+    <t>[[215.  15.]
+ [364.  15.]
+ [364. 164.]
+ [215. 164.]]</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>3.6497</t>
+    <t>4.6165</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
+    <t>[[130.   5.]
+ [279.   5.]
+ [279. 154.]
+ [130. 154.]]</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>4.3679</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>[[200.66240396 145.75573749]
+ [104.88705012 259.89635952]
+ [ -9.25357191 164.12100567]
+ [ 86.52178194  49.98038365]]</t>
+  </si>
+  <si>
+    <t>[[185. 210.]
+ [334. 210.]
+ [334. 359.]
+ [185. 359.]]</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>4.3110</t>
   </si>
   <si>
     <t>181</t>
   </si>
   <si>
-    <t>[[227.45190528 152.45190528]
- [ 98.41412012 226.95190528]
- [ 23.91412012  97.91412012]
- [152.95190528  23.41412012]]</t>
-  </si>
-  <si>
-    <t>[[100.   0.]
- [249.   0.]
- [249. 149.]
- [100. 149.]]</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>3.5147</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>[[221.12845731  80.17456419]
- [170.16745595 220.18876469]
- [ 30.15325546 169.22776333]
- [ 81.11425681  29.21356283]]</t>
-  </si>
-  <si>
-    <t>[[250.  50.]
- [399.  50.]
- [399. 199.]
- [250. 199.]]</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>3.4200</t>
-  </si>
-  <si>
-    <t>162</t>
-  </si>
-  <si>
-    <t>[[280.66240396 184.24426251]
- [166.52178194 280.01961635]
- [ 70.74642809 165.87899433]
- [184.88705012  70.10364048]]</t>
-  </si>
-  <si>
-    <t>[[250. 150.]
- [399. 150.]
- [399. 299.]
- [250. 299.]]</t>
+    <t>[[ 9.57557375e+01  2.60662404e+02]
+ [-1.96163507e-02  1.46521782e+02]
+ [ 1.14121006e+02  5.07464281e+01]
+ [ 2.09896360e+02  1.64887050e+02]]</t>
+  </si>
+  <si>
+    <t>[[135. 145.]
+ [284. 145.]
+ [284. 294.]
+ [135. 294.]]</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t>3.3302</t>
+    <t>4.2713</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>[[9.01745642e+01 1.91128457e+02]
+ [3.92135628e+01 5.11142568e+01]
+ [1.79227763e+02 1.53255456e-01]
+ [2.30188765e+02 1.40167456e+02]]</t>
+  </si>
+  <si>
+    <t>[[  5. 245.]
+ [154. 245.]
+ [154. 394.]
+ [  5. 394.]]</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>4.2465</t>
   </si>
   <si>
     <t>100</t>
   </si>
   <si>
-    <t>[[115.75573749  69.33759604]
- [229.89635952 165.11294988]
- [134.12100567 279.25357191]
- [ 19.98038365 183.47821806]]</t>
-  </si>
-  <si>
-    <t>[[ 50. 450.]
- [199. 450.]
- [199. 599.]
- [ 50. 599.]]</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>3.3113</t>
-  </si>
-  <si>
-    <t>312</t>
-  </si>
-  <si>
-    <t>[[115.75573749 280.66240396]
- [ 19.98038365 166.52178194]
- [134.12100567  70.74642809]
- [229.89635952 184.88705012]]</t>
-  </si>
-  <si>
-    <t>[[100.  50.]
- [249.  50.]
- [249. 199.]
- [100. 199.]]</t>
+    <t>[[125.75573749  39.33759604]
+ [239.89635952 135.11294988]
+ [144.12100567 249.25357191]
+ [ 29.98038365 153.47821806]]</t>
+  </si>
+  <si>
+    <t>[[ 30. 440.]
+ [179. 440.]
+ [179. 589.]
+ [ 30. 589.]]</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>3.2582</t>
+    <t>4.1338</t>
   </si>
   <si>
     <t>323</t>
   </si>
   <si>
-    <t>[[ 69.33759604 165.75573749]
- [183.47821806  69.98038365]
- [279.25357191 184.12100567]
- [165.11294988 279.89635952]]</t>
-  </si>
-  <si>
-    <t>[[450.   0.]
- [599.   0.]
- [599. 149.]
- [450. 149.]]</t>
+    <t>[[ 22.54809472 117.54809472]
+ [151.58587988  43.04809472]
+ [226.08587988 172.08587988]
+ [ 97.04809472 246.58587988]]</t>
+  </si>
+  <si>
+    <t>[[135. 200.]
+ [284. 200.]
+ [284. 349.]
+ [135. 349.]]</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>3.2519</t>
-  </si>
-  <si>
-    <t>380</t>
-  </si>
-  <si>
-    <t>[[150.   0.]
- [299.   0.]
- [299. 149.]
- [150. 149.]]</t>
+    <t>4.0863</t>
+  </si>
+  <si>
+    <t>372</t>
+  </si>
+  <si>
+    <t>[[154.24426251  19.33759604]
+ [250.01961635 133.47821806]
+ [135.87899433 229.25357191]
+ [ 40.10364048 115.11294988]]</t>
+  </si>
+  <si>
+    <t>[[ 20.   5.]
+ [169.   5.]
+ [169. 154.]
+ [ 20. 154.]]</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
-    <t>3.2471</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>[[202.45190528  72.54809472]
- [276.95190528 201.58587988]
- [147.91412012 276.08587988]
- [ 73.41412012 147.04809472]]</t>
-  </si>
-  <si>
-    <t>[[200. 200.]
- [349. 200.]
- [349. 349.]
- [200. 349.]]</t>
+    <t>3.9945</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>[[ 9.57557375e+01  3.00662404e+02]
+ [-1.96163507e-02  1.86521782e+02]
+ [ 1.14121006e+02  9.07464281e+01]
+ [ 2.09896360e+02  2.04887050e+02]]</t>
+  </si>
+  <si>
+    <t>[[100.  70.]
+ [249.  70.]
+ [249. 219.]
+ [100. 219.]]</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
-    <t>3.1975</t>
+    <t>3.9077</t>
+  </si>
+  <si>
+    <t>[[ 29.33759604 144.24426251]
+ [125.11294988  30.10364048]
+ [239.25357191 125.87899433]
+ [143.47821806 240.01961635]]</t>
+  </si>
+  <si>
+    <t>[[ 90. 200.]
+ [239. 200.]
+ [239. 349.]
+ [ 90. 349.]]</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>3.8181</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>[[190.66240396 145.75573749]
+ [ 94.88705012 259.89635952]
+ [-19.25357191 164.12100567]
+ [ 76.52178194  49.98038365]]</t>
+  </si>
+  <si>
+    <t>[[375. 180.]
+ [524. 180.]
+ [524. 329.]
+ [375. 329.]]</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>3.8089</t>
   </si>
   <si>
     <t>172</t>
   </si>
   <si>
-    <t>[[ 97.54809472 277.45190528]
- [ 23.04809472 148.41412012]
- [152.08587988  73.91412012]
- [226.58587988 202.95190528]]</t>
-  </si>
-  <si>
-    <t>[[100. 150.]
- [249. 150.]
- [249. 299.]
- [100. 299.]]</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>3.1225</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>[[150. 200.]
- [299. 200.]
- [299. 349.]
- [150. 349.]]</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>3.1043</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>[[150. 100.]
- [299. 100.]
- [299. 249.]
- [150. 249.]]</t>
+    <t>[[117.54809472 287.45190528]
+ [ 43.04809472 158.41412012]
+ [172.08587988  83.91412012]
+ [246.58587988 212.95190528]]</t>
+  </si>
+  <si>
+    <t>[[ 95. 155.]
+ [244. 155.]
+ [244. 304.]
+ [ 95. 304.]]</t>
   </si>
   <si>
     <t>17</t>
   </si>
   <si>
-    <t>3.1034</t>
-  </si>
-  <si>
-    <t>247</t>
-  </si>
-  <si>
-    <t>[[ 38.1158052  235.83696815]
- [ 63.98938367  89.10061295]
- [210.72573887 114.97419142]
- [184.8521604  261.71054662]]</t>
+    <t>3.7783</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>[[197.45190528 117.54809472]
+ [122.95190528 246.58587988]
+ [ -6.08587988 172.08587988]
+ [ 68.41412012  43.04809472]]</t>
+  </si>
+  <si>
+    <t>[[220.   0.]
+ [369.   0.]
+ [369. 149.]
+ [220. 149.]]</t>
   </si>
   <si>
     <t>18</t>
   </si>
   <si>
-    <t>3.1027</t>
-  </si>
-  <si>
-    <t>[[230.66240396 115.75573749]
- [134.88705012 229.89635952]
- [ 20.74642809 134.12100567]
- [116.52178194  19.98038365]]</t>
-  </si>
-  <si>
-    <t>[[100. 200.]
- [249. 200.]
- [249. 349.]
- [100. 349.]]</t>
+    <t>3.7716</t>
+  </si>
+  <si>
+    <t>288</t>
+  </si>
+  <si>
+    <t>[[154.24426251 240.66240396]
+ [ 40.10364048 144.88705012]
+ [135.87899433  30.74642809]
+ [250.01961635 126.52178194]]</t>
+  </si>
+  <si>
+    <t>[[310. 295.]
+ [459. 295.]
+ [459. 444.]
+ [310. 444.]]</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>3.0507</t>
-  </si>
-  <si>
-    <t>350</t>
-  </si>
-  <si>
-    <t>[[ 80.17456419 271.12845731]
- [ 29.21356283 131.11425681]
- [169.22776333  80.15325546]
- [220.18876469 220.16745595]]</t>
+    <t>3.7547</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>[[145.75573749 230.66240396]
+ [ 49.98038365 116.52178194]
+ [164.12100567  20.74642809]
+ [259.89635952 134.88705012]]</t>
+  </si>
+  <si>
+    <t>[[130. 100.]
+ [279. 100.]
+ [279. 249.]
+ [130. 249.]]</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>3.0481</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>[[100. 100.]
- [249. 100.]
- [249. 249.]
- [100. 249.]]</t>
+    <t>3.7518</t>
+  </si>
+  <si>
+    <t>[[257.45190528 147.54809472]
+ [182.95190528 276.58587988]
+ [ 53.91412012 202.08587988]
+ [128.41412012  73.04809472]]</t>
+  </si>
+  <si>
+    <t>[[395. 210.]
+ [544. 210.]
+ [544. 359.]
+ [395. 359.]]</t>
   </si>
 </sst>
 </file>
@@ -796,41 +817,41 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
         <v>23</v>
@@ -847,194 +868,194 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
         <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
         <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="D8" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="E8" t="s">
         <v>36</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="D9" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="E9" t="s">
         <v>41</v>
-      </c>
-      <c r="D9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="D10" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="E10" t="s">
         <v>46</v>
-      </c>
-      <c r="D10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="D11" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="E11" t="s">
         <v>51</v>
-      </c>
-      <c r="D11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="D12" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="E12" t="s">
         <v>56</v>
-      </c>
-      <c r="D12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="D13" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="E13" t="s">
         <v>61</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" t="s">
         <v>65</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>66</v>
-      </c>
-      <c r="E14" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="E15" t="s">
         <v>70</v>
-      </c>
-      <c r="D15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="D16" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="E16" t="s">
         <v>75</v>
-      </c>
-      <c r="D16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" t="s">
         <v>79</v>
-      </c>
-      <c r="D17" t="s">
-        <v>27</v>
       </c>
       <c r="E17" t="s">
         <v>80</v>
@@ -1054,58 +1075,58 @@
         <v>84</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="D19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E19" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="E21" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/output/SCAN000702-2/match_locs.xlsx
+++ b/output/SCAN000702-2/match_locs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="99">
   <si>
     <t>match_rank</t>
   </si>
@@ -34,70 +34,148 @@
     <t>1</t>
   </si>
   <si>
-    <t>5.3836</t>
+    <t>5.2343</t>
   </si>
   <si>
     <t>115</t>
   </si>
   <si>
-    <t>[[ -0.66240396 145.75573749]
- [113.47821806  49.98038365]
- [209.25357191 164.12100567]
- [ 95.11294988 259.89635952]]</t>
-  </si>
-  <si>
-    <t>[[ 35. 110.]
- [184. 110.]
- [184. 259.]
- [ 35. 259.]]</t>
+    <t>[[104.24426251  19.33759604]
+ [200.01961635 133.47821806]
+ [ 85.87899433 229.25357191]
+ [ -9.89635952 115.11294988]]</t>
+  </si>
+  <si>
+    <t>[[ 50. 125.]
+ [199. 125.]
+ [199. 274.]
+ [ 50. 274.]]</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>5.0652</t>
+    <t>5.1209</t>
   </si>
   <si>
     <t>225</t>
   </si>
   <si>
-    <t>[[210.66240396 164.24426251]
- [ 96.52178194 260.01961635]
- [  0.74642809 145.87899433]
- [114.88705012  50.10364048]]</t>
-  </si>
-  <si>
-    <t>[[275. 205.]
- [424. 205.]
- [424. 354.]
- [275. 354.]]</t>
+    <t>[[122.45190528  22.54809472]
+ [196.95190528 151.58587988]
+ [ 67.91412012 226.08587988]
+ [ -6.58587988  97.04809472]]</t>
+  </si>
+  <si>
+    <t>[[265. 195.]
+ [414. 195.]
+ [414. 344.]
+ [265. 344.]]</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>4.9580</t>
+    <t>4.9153</t>
   </si>
   <si>
     <t>114</t>
   </si>
   <si>
-    <t>[[210.66240396 174.24426251]
- [ 96.52178194 270.01961635]
- [  0.74642809 155.87899433]
- [114.88705012  60.10364048]]</t>
-  </si>
-  <si>
-    <t>[[460. 180.]
- [609. 180.]
- [609. 329.]
- [460. 329.]]</t>
+    <t>[[ 80. 195.]
+ [229. 195.]
+ [229. 344.]
+ [ 80. 344.]]</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>4.8986</t>
+    <t>4.6808</t>
+  </si>
+  <si>
+    <t>372</t>
+  </si>
+  <si>
+    <t>[[220.66240396 154.24426251]
+ [106.52178194 250.01961635]
+ [ 10.74642809 135.87899433]
+ [124.88705012  40.10364048]]</t>
+  </si>
+  <si>
+    <t>[[ 50.  10.]
+ [199.  10.]
+ [199. 159.]
+ [ 50. 159.]]</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4.5382</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>[[124.24426251  69.33759604]
+ [220.01961635 183.47821806]
+ [105.87899433 279.25357191]
+ [ 10.10364048 165.11294988]]</t>
+  </si>
+  <si>
+    <t>[[220.  20.]
+ [369.  20.]
+ [369. 169.]
+ [220. 169.]]</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>4.4855</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>[[ 9.57557375e+01  2.40662404e+02]
+ [-1.96163507e-02  1.26521782e+02]
+ [ 1.14121006e+02  3.07464281e+01]
+ [ 2.09896360e+02  1.44887050e+02]]</t>
+  </si>
+  <si>
+    <t>[[195.  10.]
+ [344.  10.]
+ [344. 159.]
+ [195. 159.]]</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>4.3104</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>[[ 19.33759604 105.75573749]
+ [133.47821806   9.98038365]
+ [229.25357191 124.12100567]
+ [115.11294988 219.89635952]]</t>
+  </si>
+  <si>
+    <t>[[150. 145.]
+ [299. 145.]
+ [299. 294.]
+ [150. 294.]]</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>4.2982</t>
   </si>
   <si>
     <t>376</t>
@@ -109,214 +187,115 @@
  [340. 154.]]</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>4.7247</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>[[215.  15.]
- [364.  15.]
- [364. 164.]
- [215. 164.]]</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>4.6165</t>
+    <t>9</t>
+  </si>
+  <si>
+    <t>4.2108</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>[[ 70.17456419  88.87154269]
+ [210.18876469 139.83254405]
+ [159.22776333 279.84674454]
+ [ 19.21356283 228.88574319]]</t>
+  </si>
+  <si>
+    <t>[[120. 125.]
+ [269. 125.]
+ [269. 274.]
+ [120. 274.]]</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>4.1546</t>
   </si>
   <si>
     <t>380</t>
   </si>
   <si>
-    <t>[[130.   5.]
- [279.   5.]
- [279. 154.]
- [130. 154.]]</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>4.3679</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>[[200.66240396 145.75573749]
- [104.88705012 259.89635952]
- [ -9.25357191 164.12100567]
- [ 86.52178194  49.98038365]]</t>
-  </si>
-  <si>
-    <t>[[185. 210.]
- [334. 210.]
- [334. 359.]
- [185. 359.]]</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>4.3110</t>
-  </si>
-  <si>
-    <t>181</t>
-  </si>
-  <si>
-    <t>[[ 9.57557375e+01  2.60662404e+02]
- [-1.96163507e-02  1.46521782e+02]
- [ 1.14121006e+02  5.07464281e+01]
- [ 2.09896360e+02  1.64887050e+02]]</t>
-  </si>
-  <si>
-    <t>[[135. 145.]
- [284. 145.]
- [284. 294.]
- [135. 294.]]</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>4.2713</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>[[9.01745642e+01 1.91128457e+02]
- [3.92135628e+01 5.11142568e+01]
- [1.79227763e+02 1.53255456e-01]
- [2.30188765e+02 1.40167456e+02]]</t>
-  </si>
-  <si>
-    <t>[[  5. 245.]
- [154. 245.]
- [154. 394.]
- [  5. 394.]]</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>4.2465</t>
+    <t>[[120.   5.]
+ [269.   5.]
+ [269. 154.]
+ [120. 154.]]</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>4.1232</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>[[210.66240396 144.24426251]
+ [ 96.52178194 240.01961635]
+ [  0.74642809 125.87899433]
+ [114.88705012  30.10364048]]</t>
+  </si>
+  <si>
+    <t>[[100.  80.]
+ [249.  80.]
+ [249. 229.]
+ [100. 229.]]</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>4.0879</t>
   </si>
   <si>
     <t>100</t>
   </si>
   <si>
-    <t>[[125.75573749  39.33759604]
- [239.89635952 135.11294988]
- [144.12100567 249.25357191]
- [ 29.98038365 153.47821806]]</t>
-  </si>
-  <si>
-    <t>[[ 30. 440.]
- [179. 440.]
- [179. 589.]
- [ 30. 589.]]</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>4.1338</t>
-  </si>
-  <si>
-    <t>323</t>
-  </si>
-  <si>
-    <t>[[ 22.54809472 117.54809472]
- [151.58587988  43.04809472]
- [226.08587988 172.08587988]
- [ 97.04809472 246.58587988]]</t>
-  </si>
-  <si>
-    <t>[[135. 200.]
- [284. 200.]
- [284. 349.]
- [135. 349.]]</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>4.0863</t>
-  </si>
-  <si>
-    <t>372</t>
-  </si>
-  <si>
-    <t>[[154.24426251  19.33759604]
- [250.01961635 133.47821806]
- [135.87899433 229.25357191]
- [ 40.10364048 115.11294988]]</t>
-  </si>
-  <si>
-    <t>[[ 20.   5.]
- [169.   5.]
- [169. 154.]
- [ 20. 154.]]</t>
+    <t>[[ 48.87154269  90.17456419]
+ [188.88574319  39.21356283]
+ [239.84674454 179.22776333]
+ [ 99.83254405 230.18876469]]</t>
+  </si>
+  <si>
+    <t>[[  0. 290.]
+ [149. 290.]
+ [149. 439.]
+ [  0. 439.]]</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
-    <t>3.9945</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>[[ 9.57557375e+01  3.00662404e+02]
- [-1.96163507e-02  1.86521782e+02]
- [ 1.14121006e+02  9.07464281e+01]
- [ 2.09896360e+02  2.04887050e+02]]</t>
-  </si>
-  <si>
-    <t>[[100.  70.]
- [249.  70.]
- [249. 219.]
- [100. 219.]]</t>
+    <t>3.9362</t>
+  </si>
+  <si>
+    <t>[[142.45190528 247.45190528]
+ [ 13.41412012 172.95190528]
+ [ 87.91412012  43.91412012]
+ [216.95190528 118.41412012]]</t>
+  </si>
+  <si>
+    <t>[[395. 210.]
+ [544. 210.]
+ [544. 359.]
+ [395. 359.]]</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
-    <t>3.9077</t>
-  </si>
-  <si>
-    <t>[[ 29.33759604 144.24426251]
- [125.11294988  30.10364048]
- [239.25357191 125.87899433]
- [143.47821806 240.01961635]]</t>
-  </si>
-  <si>
-    <t>[[ 90. 200.]
- [239. 200.]
- [239. 349.]
- [ 90. 349.]]</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>3.8181</t>
+    <t>3.9270</t>
   </si>
   <si>
     <t>88</t>
   </si>
   <si>
-    <t>[[190.66240396 145.75573749]
- [ 94.88705012 259.89635952]
- [-19.25357191 164.12100567]
- [ 76.52178194  49.98038365]]</t>
+    <t>[[1.14244263e+02 6.93375960e+01]
+ [2.10019616e+02 1.83478218e+02]
+ [9.58789943e+01 2.79253572e+02]
+ [1.03640483e-01 1.65112950e+02]]</t>
   </si>
   <si>
     <t>[[375. 180.]
@@ -325,106 +304,118 @@
  [375. 329.]]</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>3.9140</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>[[105.75573749  89.33759604]
+ [219.89635952 185.11294988]
+ [124.12100567 299.25357191]
+ [  9.98038365 203.47821806]]</t>
+  </si>
+  <si>
+    <t>[[255.   0.]
+ [404.   0.]
+ [404. 149.]
+ [255. 149.]]</t>
+  </si>
+  <si>
     <t>16</t>
   </si>
   <si>
-    <t>3.8089</t>
+    <t>3.9119</t>
+  </si>
+  <si>
+    <t>323</t>
+  </si>
+  <si>
+    <t>[[1.14244263e+02 5.93375960e+01]
+ [2.10019616e+02 1.73478218e+02]
+ [9.58789943e+01 2.69253572e+02]
+ [1.03640483e-01 1.55112950e+02]]</t>
+  </si>
+  <si>
+    <t>[[125.  20.]
+ [274.  20.]
+ [274. 169.]
+ [125. 169.]]</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>3.8926</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>[[105.  90.]
+ [254.  90.]
+ [254. 239.]
+ [105. 239.]]</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>3.8054</t>
   </si>
   <si>
     <t>172</t>
   </si>
   <si>
-    <t>[[117.54809472 287.45190528]
- [ 43.04809472 158.41412012]
- [172.08587988  83.91412012]
- [246.58587988 212.95190528]]</t>
-  </si>
-  <si>
-    <t>[[ 95. 155.]
- [244. 155.]
- [244. 304.]
- [ 95. 304.]]</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>3.7783</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>[[197.45190528 117.54809472]
- [122.95190528 246.58587988]
- [ -6.08587988 172.08587988]
- [ 68.41412012  43.04809472]]</t>
-  </si>
-  <si>
-    <t>[[220.   0.]
- [369.   0.]
- [369. 149.]
- [220. 149.]]</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>3.7716</t>
-  </si>
-  <si>
-    <t>288</t>
-  </si>
-  <si>
-    <t>[[154.24426251 240.66240396]
- [ 40.10364048 144.88705012]
- [135.87899433  30.74642809]
- [250.01961635 126.52178194]]</t>
-  </si>
-  <si>
-    <t>[[310. 295.]
- [459. 295.]
- [459. 444.]
- [310. 444.]]</t>
+    <t>[[ 29.33759604 115.75573749]
+ [143.47821806  19.98038365]
+ [239.25357191 134.12100567]
+ [125.11294988 229.89635952]]</t>
+  </si>
+  <si>
+    <t>[[120. 170.]
+ [269. 170.]
+ [269. 319.]
+ [120. 319.]]</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>3.7547</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>[[145.75573749 230.66240396]
- [ 49.98038365 116.52178194]
- [164.12100567  20.74642809]
- [259.89635952 134.88705012]]</t>
-  </si>
-  <si>
-    <t>[[130. 100.]
- [279. 100.]
- [279. 249.]
- [130. 249.]]</t>
+    <t>3.7836</t>
+  </si>
+  <si>
+    <t>338</t>
+  </si>
+  <si>
+    <t>[[180. 230.]
+ [ 31. 230.]
+ [ 31.  81.]
+ [180.  81.]]</t>
+  </si>
+  <si>
+    <t>[[ 65. 435.]
+ [214. 435.]
+ [214. 584.]
+ [ 65. 584.]]</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>3.7518</t>
-  </si>
-  <si>
-    <t>[[257.45190528 147.54809472]
- [182.95190528 276.58587988]
- [ 53.91412012 202.08587988]
- [128.41412012  73.04809472]]</t>
-  </si>
-  <si>
-    <t>[[395. 210.]
- [544. 210.]
- [544. 359.]
- [395. 359.]]</t>
+    <t>3.7082</t>
+  </si>
+  <si>
+    <t>312</t>
+  </si>
+  <si>
+    <t>[[105.  50.]
+ [254.  50.]
+ [254. 199.]
+ [105. 199.]]</t>
   </si>
 </sst>
 </file>
@@ -834,24 +825,24 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
         <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" t="s">
         <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
       </c>
       <c r="E5" t="s">
         <v>23</v>
@@ -868,92 +859,92 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
         <v>51</v>
@@ -1001,24 +992,24 @@
         <v>63</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
         <v>64</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>65</v>
-      </c>
-      <c r="E14" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="D15" t="s">
         <v>69</v>
@@ -1072,61 +1063,61 @@
         <v>83</v>
       </c>
       <c r="D18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" t="s">
         <v>84</v>
-      </c>
-      <c r="E18" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" t="s">
         <v>88</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>89</v>
-      </c>
-      <c r="E19" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" t="s">
         <v>93</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>94</v>
-      </c>
-      <c r="E20" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="D21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" t="s">
         <v>98</v>
-      </c>
-      <c r="E21" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/output/SCAN000702-2/match_locs.xlsx
+++ b/output/SCAN000702-2/match_locs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="102">
   <si>
     <t>match_rank</t>
   </si>
@@ -34,16 +34,16 @@
     <t>1</t>
   </si>
   <si>
-    <t>5.2343</t>
+    <t>5.3134</t>
   </si>
   <si>
     <t>115</t>
   </si>
   <si>
-    <t>[[104.24426251  19.33759604]
- [200.01961635 133.47821806]
- [ 85.87899433 229.25357191]
- [ -9.89635952 115.11294988]]</t>
+    <t>[[109.24426251  19.33759604]
+ [205.01961635 133.47821806]
+ [ 90.87899433 229.25357191]
+ [ -4.89635952 115.11294988]]</t>
   </si>
   <si>
     <t>[[ 50. 125.]
@@ -55,367 +55,382 @@
     <t>2</t>
   </si>
   <si>
-    <t>5.1209</t>
+    <t>4.5037</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>[[450. 150.]
+ [599. 150.]
+ [599. 299.]
+ [450. 299.]]</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4.1980</t>
   </si>
   <si>
     <t>225</t>
   </si>
   <si>
-    <t>[[122.45190528  22.54809472]
- [196.95190528 151.58587988]
- [ 67.91412012 226.08587988]
- [ -6.58587988  97.04809472]]</t>
-  </si>
-  <si>
-    <t>[[265. 195.]
- [414. 195.]
- [414. 344.]
- [265. 344.]]</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4.9153</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>[[ 80. 195.]
- [229. 195.]
- [229. 344.]
- [ 80. 344.]]</t>
+    <t>[[ 90.75573749 230.66240396]
+ [ -5.01961635 116.52178194]
+ [109.12100567  20.74642809]
+ [204.89635952 134.88705012]]</t>
+  </si>
+  <si>
+    <t>[[250. 200.]
+ [399. 200.]
+ [399. 349.]
+ [250. 349.]]</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>4.6808</t>
+    <t>4.1096</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>[[ 19.33759604 115.75573749]
+ [133.47821806  19.98038365]
+ [229.25357191 134.12100567]
+ [115.11294988 229.89635952]]</t>
+  </si>
+  <si>
+    <t>[[150. 150.]
+ [299. 150.]
+ [299. 299.]
+ [150. 299.]]</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4.0601</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>[[134.24426251  69.33759604]
+ [230.01961635 183.47821806]
+ [115.87899433 279.25357191]
+ [ 20.10364048 165.11294988]]</t>
+  </si>
+  <si>
+    <t>[[225.   0.]
+ [374.   0.]
+ [374. 149.]
+ [225. 149.]]</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>3.8940</t>
+  </si>
+  <si>
+    <t>376</t>
+  </si>
+  <si>
+    <t>[[ 90.75573749 255.66240396]
+ [ -5.01961635 141.52178194]
+ [109.12100567  45.74642809]
+ [204.89635952 159.88705012]]</t>
+  </si>
+  <si>
+    <t>[[100. 250.]
+ [249. 250.]
+ [249. 399.]
+ [100. 399.]]</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>3.8809</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>[[ 47.54809472  97.54809472]
+ [176.58587988  23.04809472]
+ [251.08587988 152.08587988]
+ [122.04809472 226.58587988]]</t>
+  </si>
+  <si>
+    <t>[[  0. 250.]
+ [149. 250.]
+ [149. 399.]
+ [  0. 399.]]</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>3.7765</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>[[ 97.54809472  47.54809472]
+ [226.58587988 122.04809472]
+ [152.08587988 251.08587988]
+ [ 23.04809472 176.58587988]]</t>
+  </si>
+  <si>
+    <t>[[ 75.  75.]
+ [224.  75.]
+ [224. 224.]
+ [ 75. 224.]]</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>3.7621</t>
+  </si>
+  <si>
+    <t>323</t>
+  </si>
+  <si>
+    <t>[[134.24426251  19.33759604]
+ [230.01961635 133.47821806]
+ [115.87899433 229.25357191]
+ [ 20.10364048 115.11294988]]</t>
+  </si>
+  <si>
+    <t>[[125. 200.]
+ [274. 200.]
+ [274. 349.]
+ [125. 349.]]</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>3.7362</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>[[127.45190528  22.54809472]
+ [201.95190528 151.58587988]
+ [ 72.91412012 226.08587988]
+ [ -1.58587988  97.04809472]]</t>
+  </si>
+  <si>
+    <t>[[200. 250.]
+ [349. 250.]
+ [349. 399.]
+ [200. 399.]]</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>3.6708</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>[[230.66240396 134.24426251]
+ [116.52178194 230.01961635]
+ [ 20.74642809 115.87899433]
+ [134.88705012  20.10364048]]</t>
+  </si>
+  <si>
+    <t>[[100.  75.]
+ [249.  75.]
+ [249. 224.]
+ [100. 224.]]</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>3.6657</t>
   </si>
   <si>
     <t>372</t>
   </si>
   <si>
-    <t>[[220.66240396 154.24426251]
- [106.52178194 250.01961635]
- [ 10.74642809 135.87899433]
- [124.88705012  40.10364048]]</t>
-  </si>
-  <si>
-    <t>[[ 50.  10.]
- [199.  10.]
- [199. 159.]
- [ 50. 159.]]</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>4.5382</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>[[124.24426251  69.33759604]
- [220.01961635 183.47821806]
- [105.87899433 279.25357191]
- [ 10.10364048 165.11294988]]</t>
-  </si>
-  <si>
-    <t>[[220.  20.]
- [369.  20.]
- [369. 169.]
- [220. 169.]]</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>4.4855</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>[[ 9.57557375e+01  2.40662404e+02]
- [-1.96163507e-02  1.26521782e+02]
- [ 1.14121006e+02  3.07464281e+01]
- [ 2.09896360e+02  1.44887050e+02]]</t>
-  </si>
-  <si>
-    <t>[[195.  10.]
- [344.  10.]
- [344. 159.]
- [195. 159.]]</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>4.3104</t>
-  </si>
-  <si>
-    <t>181</t>
-  </si>
-  <si>
-    <t>[[ 19.33759604 105.75573749]
- [133.47821806   9.98038365]
- [229.25357191 124.12100567]
- [115.11294988 219.89635952]]</t>
-  </si>
-  <si>
-    <t>[[150. 145.]
- [299. 145.]
- [299. 294.]
- [150. 294.]]</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>4.2982</t>
-  </si>
-  <si>
-    <t>376</t>
-  </si>
-  <si>
-    <t>[[340.   5.]
- [489.   5.]
- [489. 154.]
- [340. 154.]]</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>4.2108</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>[[ 70.17456419  88.87154269]
- [210.18876469 139.83254405]
- [159.22776333 279.84674454]
- [ 19.21356283 228.88574319]]</t>
-  </si>
-  <si>
-    <t>[[120. 125.]
- [269. 125.]
- [269. 274.]
- [120. 274.]]</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>4.1546</t>
+    <t>[[230.66240396 159.24426251]
+ [116.52178194 255.01961635]
+ [ 20.74642809 140.87899433]
+ [134.88705012  45.10364048]]</t>
+  </si>
+  <si>
+    <t>[[ 50.   0.]
+ [199.   0.]
+ [199. 149.]
+ [ 50. 149.]]</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>3.6392</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>[[152.45190528  22.54809472]
+ [226.95190528 151.58587988]
+ [ 97.91412012 226.08587988]
+ [ 23.41412012  97.04809472]]</t>
+  </si>
+  <si>
+    <t>[[200. 425.]
+ [349. 425.]
+ [349. 574.]
+ [200. 574.]]</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>3.6004</t>
   </si>
   <si>
     <t>380</t>
   </si>
   <si>
-    <t>[[120.   5.]
- [269.   5.]
- [269. 154.]
- [120. 154.]]</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>4.1232</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>[[210.66240396 144.24426251]
- [ 96.52178194 240.01961635]
- [  0.74642809 125.87899433]
- [114.88705012  30.10364048]]</t>
-  </si>
-  <si>
-    <t>[[100.  80.]
- [249.  80.]
- [249. 229.]
- [100. 229.]]</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>4.0879</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>[[ 48.87154269  90.17456419]
- [188.88574319  39.21356283]
- [239.84674454 179.22776333]
- [ 99.83254405 230.18876469]]</t>
-  </si>
-  <si>
-    <t>[[  0. 290.]
- [149. 290.]
- [149. 439.]
- [  0. 439.]]</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>3.9362</t>
-  </si>
-  <si>
-    <t>[[142.45190528 247.45190528]
- [ 13.41412012 172.95190528]
- [ 87.91412012  43.91412012]
- [216.95190528 118.41412012]]</t>
-  </si>
-  <si>
-    <t>[[395. 210.]
- [544. 210.]
- [544. 359.]
- [395. 359.]]</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>3.9270</t>
+    <t>[[125.   0.]
+ [274.   0.]
+ [274. 149.]
+ [125. 149.]]</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>3.5311</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>[[ 72.54809472  97.54809472]
+ [201.58587988 172.04809472]
+ [127.08587988 301.08587988]
+ [ -1.95190528 226.58587988]]</t>
+  </si>
+  <si>
+    <t>[[275.  25.]
+ [424.  25.]
+ [424. 174.]
+ [275. 174.]]</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>3.5023</t>
   </si>
   <si>
     <t>88</t>
   </si>
   <si>
-    <t>[[1.14244263e+02 6.93375960e+01]
- [2.10019616e+02 1.83478218e+02]
- [9.58789943e+01 2.79253572e+02]
- [1.03640483e-01 1.65112950e+02]]</t>
-  </si>
-  <si>
-    <t>[[375. 180.]
- [524. 180.]
- [524. 329.]
- [375. 329.]]</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>3.9140</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>[[105.75573749  89.33759604]
- [219.89635952 185.11294988]
- [124.12100567 299.25357191]
- [  9.98038365 203.47821806]]</t>
-  </si>
-  <si>
-    <t>[[255.   0.]
- [404.   0.]
- [404. 149.]
- [255. 149.]]</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>3.9119</t>
-  </si>
-  <si>
-    <t>323</t>
-  </si>
-  <si>
-    <t>[[1.14244263e+02 5.93375960e+01]
- [2.10019616e+02 1.73478218e+02]
- [9.58789943e+01 2.69253572e+02]
- [1.03640483e-01 1.55112950e+02]]</t>
-  </si>
-  <si>
-    <t>[[125.  20.]
- [274.  20.]
- [274. 169.]
- [125. 169.]]</t>
+    <t>[[109.24426251  69.33759604]
+ [205.01961635 183.47821806]
+ [ 90.87899433 279.25357191]
+ [ -4.89635952 165.11294988]]</t>
+  </si>
+  <si>
+    <t>[[375. 175.]
+ [524. 175.]
+ [524. 324.]
+ [375. 324.]]</t>
   </si>
   <si>
     <t>17</t>
   </si>
   <si>
-    <t>3.8926</t>
+    <t>3.4565</t>
+  </si>
+  <si>
+    <t>312</t>
+  </si>
+  <si>
+    <t>[[100.  50.]
+ [249.  50.]
+ [249. 199.]
+ [100. 199.]]</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>3.4520</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>[[255.66240396 134.24426251]
+ [141.52178194 230.01961635]
+ [ 45.74642809 115.87899433]
+ [159.88705012  20.10364048]]</t>
+  </si>
+  <si>
+    <t>[[100. 125.]
+ [249. 125.]
+ [249. 274.]
+ [100. 274.]]</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>3.4352</t>
   </si>
   <si>
     <t>126</t>
   </si>
   <si>
-    <t>[[105.  90.]
- [254.  90.]
- [254. 239.]
- [105. 239.]]</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>3.8054</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>[[ 29.33759604 115.75573749]
- [143.47821806  19.98038365]
- [239.25357191 134.12100567]
- [125.11294988 229.89635952]]</t>
-  </si>
-  <si>
-    <t>[[120. 170.]
- [269. 170.]
- [269. 319.]
- [120. 319.]]</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>3.7836</t>
+    <t>[[ 19.33759604 140.75573749]
+ [133.47821806  44.98038365]
+ [229.25357191 159.12100567]
+ [115.11294988 254.89635952]]</t>
+  </si>
+  <si>
+    <t>[[100. 100.]
+ [249. 100.]
+ [249. 249.]
+ [100. 249.]]</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>3.4319</t>
   </si>
   <si>
     <t>338</t>
   </si>
   <si>
-    <t>[[180. 230.]
- [ 31. 230.]
- [ 31.  81.]
- [180.  81.]]</t>
-  </si>
-  <si>
-    <t>[[ 65. 435.]
- [214. 435.]
- [214. 584.]
- [ 65. 584.]]</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>3.7082</t>
-  </si>
-  <si>
-    <t>312</t>
-  </si>
-  <si>
-    <t>[[105.  50.]
- [254.  50.]
- [254. 199.]
- [105. 199.]]</t>
+    <t>[[175. 225.]
+ [ 26. 225.]
+ [ 26.  76.]
+ [175.  76.]]</t>
+  </si>
+  <si>
+    <t>[[ 75. 450.]
+ [224. 450.]
+ [224. 599.]
+ [ 75. 599.]]</t>
   </si>
 </sst>
 </file>
@@ -808,24 +823,24 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" t="s">
         <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
@@ -910,214 +925,214 @@
         <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E17" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D19" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E19" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D20" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E20" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="E21" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/output/SCAN000702-2/match_locs.xlsx
+++ b/output/SCAN000702-2/match_locs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="100">
   <si>
     <t>match_rank</t>
   </si>
@@ -34,7 +34,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>5.3134</t>
+    <t>5.4078</t>
   </si>
   <si>
     <t>115</t>
@@ -55,7 +55,112 @@
     <t>2</t>
   </si>
   <si>
-    <t>4.5037</t>
+    <t>5.1874</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>[[ 19.33759604 115.75573749]
+ [133.47821806  19.98038365]
+ [229.25357191 134.12100567]
+ [115.11294988 229.89635952]]</t>
+  </si>
+  <si>
+    <t>[[150. 150.]
+ [299. 150.]
+ [299. 299.]
+ [150. 299.]]</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4.9747</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>[[ 47.54809472  97.54809472]
+ [176.58587988  23.04809472]
+ [251.08587988 152.08587988]
+ [122.04809472 226.58587988]]</t>
+  </si>
+  <si>
+    <t>[[  0. 250.]
+ [149. 250.]
+ [149. 399.]
+ [  0. 399.]]</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>4.9330</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>[[230.66240396 134.24426251]
+ [116.52178194 230.01961635]
+ [ 20.74642809 115.87899433]
+ [134.88705012  20.10364048]]</t>
+  </si>
+  <si>
+    <t>[[100.  75.]
+ [249.  75.]
+ [249. 224.]
+ [100. 224.]]</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4.9111</t>
+  </si>
+  <si>
+    <t>376</t>
+  </si>
+  <si>
+    <t>[[ 19.33759604  90.75573749]
+ [133.47821806  -5.01961635]
+ [229.25357191 109.12100567]
+ [115.11294988 204.89635952]]</t>
+  </si>
+  <si>
+    <t>[[  0. 125.]
+ [149. 125.]
+ [149. 274.]
+ [  0. 274.]]</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>4.6329</t>
+  </si>
+  <si>
+    <t>372</t>
+  </si>
+  <si>
+    <t>[[230.66240396 159.24426251]
+ [116.52178194 255.01961635]
+ [ 20.74642809 140.87899433]
+ [134.88705012  45.10364048]]</t>
+  </si>
+  <si>
+    <t>[[ 50.   0.]
+ [199.   0.]
+ [199. 149.]
+ [ 50. 149.]]</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>4.6233</t>
   </si>
   <si>
     <t>114</t>
@@ -67,10 +172,31 @@
  [450. 299.]]</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4.1980</t>
+    <t>8</t>
+  </si>
+  <si>
+    <t>4.6135</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>[[205.66240396 209.24426251]
+ [ 91.52178194 305.01961635]
+ [ -4.25357191 190.87899433]
+ [109.88705012  95.10364048]]</t>
+  </si>
+  <si>
+    <t>[[  0. 100.]
+ [149. 100.]
+ [149. 249.]
+ [  0. 249.]]</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>4.4840</t>
   </si>
   <si>
     <t>225</t>
@@ -88,31 +214,136 @@
  [250. 349.]]</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>4.1096</t>
-  </si>
-  <si>
-    <t>181</t>
-  </si>
-  <si>
-    <t>[[ 19.33759604 115.75573749]
- [133.47821806  19.98038365]
- [229.25357191 134.12100567]
- [115.11294988 229.89635952]]</t>
-  </si>
-  <si>
-    <t>[[150. 150.]
- [299. 150.]
- [299. 299.]
- [150. 299.]]</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>4.0601</t>
+    <t>10</t>
+  </si>
+  <si>
+    <t>4.4665</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>[[152.45190528  22.54809472]
+ [226.95190528 151.58587988]
+ [ 97.91412012 226.08587988]
+ [ 23.41412012  97.04809472]]</t>
+  </si>
+  <si>
+    <t>[[200. 425.]
+ [349. 425.]
+ [349. 574.]
+ [200. 574.]]</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>4.4507</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>[[200. 250.]
+ [349. 250.]
+ [349. 399.]
+ [200. 399.]]</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>4.4458</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>[[200. 200.]
+ [349. 200.]
+ [349. 349.]
+ [200. 349.]]</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>4.3700</t>
+  </si>
+  <si>
+    <t>312</t>
+  </si>
+  <si>
+    <t>[[100.  50.]
+ [249.  50.]
+ [249. 199.]
+ [100. 199.]]</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>4.3539</t>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>[[ -5.66240396 115.75573749]
+ [108.47821806  19.98038365]
+ [204.25357191 134.12100567]
+ [ 90.11294988 229.89635952]]</t>
+  </si>
+  <si>
+    <t>[[100. 200.]
+ [249. 200.]
+ [249. 349.]
+ [100. 349.]]</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>4.3504</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
+    <t>[[186.8841948   64.16303185]
+ [161.01061633 210.89938705]
+ [ 14.27426113 185.02580858]
+ [ 40.1478396   38.28945338]]</t>
+  </si>
+  <si>
+    <t>[[325.  75.]
+ [474.  75.]
+ [474. 224.]
+ [325. 224.]]</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>4.3170</t>
+  </si>
+  <si>
+    <t>[[  3.87154269 169.82543581]
+ [ 54.83254405  29.81123531]
+ [194.84674454  80.77223667]
+ [143.88574319 220.78643717]]</t>
+  </si>
+  <si>
+    <t>[[ 75. 200.]
+ [224. 200.]
+ [224. 349.]
+ [ 75. 349.]]</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>4.3135</t>
   </si>
   <si>
     <t>220</t>
@@ -130,250 +361,52 @@
  [225. 149.]]</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>3.8940</t>
-  </si>
-  <si>
-    <t>376</t>
-  </si>
-  <si>
-    <t>[[ 90.75573749 255.66240396]
- [ -5.01961635 141.52178194]
- [109.12100567  45.74642809]
- [204.89635952 159.88705012]]</t>
-  </si>
-  <si>
-    <t>[[100. 250.]
- [249. 250.]
- [249. 399.]
- [100. 399.]]</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>3.8809</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>[[ 47.54809472  97.54809472]
- [176.58587988  23.04809472]
- [251.08587988 152.08587988]
- [122.04809472 226.58587988]]</t>
-  </si>
-  <si>
-    <t>[[  0. 250.]
- [149. 250.]
- [149. 399.]
- [  0. 399.]]</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>3.7765</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>[[ 97.54809472  47.54809472]
- [226.58587988 122.04809472]
- [152.08587988 251.08587988]
- [ 23.04809472 176.58587988]]</t>
-  </si>
-  <si>
-    <t>[[ 75.  75.]
- [224.  75.]
- [224. 224.]
- [ 75. 224.]]</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>3.7621</t>
-  </si>
-  <si>
-    <t>323</t>
-  </si>
-  <si>
-    <t>[[134.24426251  19.33759604]
- [230.01961635 133.47821806]
- [115.87899433 229.25357191]
- [ 20.10364048 115.11294988]]</t>
-  </si>
-  <si>
-    <t>[[125. 200.]
- [274. 200.]
- [274. 349.]
- [125. 349.]]</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>3.7362</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>[[127.45190528  22.54809472]
- [201.95190528 151.58587988]
- [ 72.91412012 226.08587988]
- [ -1.58587988  97.04809472]]</t>
-  </si>
-  <si>
-    <t>[[200. 250.]
- [349. 250.]
- [349. 399.]
- [200. 399.]]</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>3.6708</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>[[230.66240396 134.24426251]
- [116.52178194 230.01961635]
- [ 20.74642809 115.87899433]
- [134.88705012  20.10364048]]</t>
-  </si>
-  <si>
-    <t>[[100.  75.]
- [249.  75.]
- [249. 224.]
- [100. 224.]]</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>3.6657</t>
-  </si>
-  <si>
-    <t>372</t>
-  </si>
-  <si>
-    <t>[[230.66240396 159.24426251]
- [116.52178194 255.01961635]
- [ 20.74642809 140.87899433]
- [134.88705012  45.10364048]]</t>
-  </si>
-  <si>
-    <t>[[ 50.   0.]
- [199.   0.]
- [199. 149.]
- [ 50. 149.]]</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>3.6392</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>[[152.45190528  22.54809472]
- [226.95190528 151.58587988]
- [ 97.91412012 226.08587988]
- [ 23.41412012  97.04809472]]</t>
-  </si>
-  <si>
-    <t>[[200. 425.]
- [349. 425.]
- [349. 574.]
- [200. 574.]]</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>3.6004</t>
-  </si>
-  <si>
-    <t>380</t>
-  </si>
-  <si>
-    <t>[[125.   0.]
- [274.   0.]
- [274. 149.]
- [125. 149.]]</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>3.5311</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>[[ 72.54809472  97.54809472]
- [201.58587988 172.04809472]
- [127.08587988 301.08587988]
- [ -1.95190528 226.58587988]]</t>
-  </si>
-  <si>
-    <t>[[275.  25.]
- [424.  25.]
- [424. 174.]
- [275. 174.]]</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>3.5023</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>[[109.24426251  69.33759604]
- [205.01961635 183.47821806]
- [ 90.87899433 279.25357191]
- [ -4.89635952 165.11294988]]</t>
-  </si>
-  <si>
-    <t>[[375. 175.]
- [524. 175.]
- [524. 324.]
- [375. 324.]]</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>3.4565</t>
-  </si>
-  <si>
-    <t>312</t>
-  </si>
-  <si>
-    <t>[[100.  50.]
- [249.  50.]
- [249. 199.]
- [100. 199.]]</t>
-  </si>
-  <si>
     <t>18</t>
   </si>
   <si>
-    <t>3.4520</t>
+    <t>4.2931</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>[[ 19.33759604 140.75573749]
+ [133.47821806  44.98038365]
+ [229.25357191 159.12100567]
+ [115.11294988 254.89635952]]</t>
+  </si>
+  <si>
+    <t>[[100. 100.]
+ [249. 100.]
+ [249. 249.]
+ [100. 249.]]</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>4.2717</t>
+  </si>
+  <si>
+    <t>288</t>
+  </si>
+  <si>
+    <t>[[205.66240396 109.24426251]
+ [ 91.52178194 205.01961635]
+ [ -4.25357191  90.87899433]
+ [109.88705012  -4.89635952]]</t>
+  </si>
+  <si>
+    <t>[[ 50. 325.]
+ [199. 325.]
+ [199. 474.]
+ [ 50. 474.]]</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>4.2512</t>
   </si>
   <si>
     <t>172</t>
@@ -389,48 +422,6 @@
  [249. 125.]
  [249. 274.]
  [100. 274.]]</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>3.4352</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>[[ 19.33759604 140.75573749]
- [133.47821806  44.98038365]
- [229.25357191 159.12100567]
- [115.11294988 254.89635952]]</t>
-  </si>
-  <si>
-    <t>[[100. 100.]
- [249. 100.]
- [249. 249.]
- [100. 249.]]</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>3.4319</t>
-  </si>
-  <si>
-    <t>338</t>
-  </si>
-  <si>
-    <t>[[175. 225.]
- [ 26. 225.]
- [ 26.  76.]
- [175.  76.]]</t>
-  </si>
-  <si>
-    <t>[[ 75. 450.]
- [224. 450.]
- [224. 599.]
- [ 75. 599.]]</t>
   </si>
 </sst>
 </file>
@@ -823,92 +814,92 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
         <v>38</v>
@@ -976,163 +967,163 @@
         <v>56</v>
       </c>
       <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
         <v>57</v>
-      </c>
-      <c r="E12" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
         <v>61</v>
-      </c>
-      <c r="D13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
         <v>65</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="E15" t="s">
         <v>70</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="D16" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="E16" t="s">
         <v>75</v>
-      </c>
-      <c r="D16" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="E17" t="s">
         <v>79</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="E18" t="s">
         <v>84</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="D19" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="E19" t="s">
         <v>89</v>
-      </c>
-      <c r="D19" t="s">
-        <v>90</v>
-      </c>
-      <c r="E19" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="D20" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="E20" t="s">
         <v>94</v>
-      </c>
-      <c r="D20" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="D21" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="E21" t="s">
         <v>99</v>
-      </c>
-      <c r="D21" t="s">
-        <v>100</v>
-      </c>
-      <c r="E21" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
